--- a/biology/Zoologie/Crinia_parinsignifera/Crinia_parinsignifera.xlsx
+++ b/biology/Zoologie/Crinia_parinsignifera/Crinia_parinsignifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crinia parinsignifera est une espèce d'amphibiens de la famille des Myobatrachidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crinia parinsignifera est une espèce d'amphibiens de la famille des Myobatrachidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de l'Australie[1],[2]. Elle se rencontre jusqu'à 200 m d'altitude dans les États du Queensland, de Nouvelle-Galles du Sud, du Victoria et dans le sud-est de l'Australie-Méridionale.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est de l'Australie,. Elle se rencontre jusqu'à 200 m d'altitude dans les États du Queensland, de Nouvelle-Galles du Sud, du Victoria et dans le sud-est de l'Australie-Méridionale.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crinia parinsignifera mesure jusqu'à 23 mm. La peau de son dos peut être aussi bien lisse que présentant des plis ou des verrues ; par ailleurs sa coloration est très variable. C'est essentiellement son ventre qui permet de différencier cette espèce de Crinia signifera et de Crinia sloanei. Chez Crinia parinsignifera, il est gris foncé avec des marbrures blanches de densité variable.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Main, 1957 : Studies in Australian Amphibia. I. The genus Crinia Tschudi in South-Western Australia and some species from South-Eastern Australia. Australian Journal of Zoology, vol. 5, p. 30-55.</t>
         </is>
